--- a/DataCreated/Persons_compare_withoutDuplicates.xlsx
+++ b/DataCreated/Persons_compare_withoutDuplicates.xlsx
@@ -1825,6 +1825,167 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3542971402140777E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.2893071379013954E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.595386421798569E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0314457103211162E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5639407114774556E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3060792838971764E-2"/>
+                  <c:y val="-3.1821797931583136E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6121585677943562E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6E5A-4D6E-BD0C-2456B606E2A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1839,7 +2000,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2126,12 +2287,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2185,7 +2343,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6671,7 +6829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6944,7 +7101,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6982,7 +7138,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
@@ -6996,7 +7151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10123,15 +10277,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11060,7 +11214,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
